--- a/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
+++ b/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Key</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Ilian</t>
+  </si>
+  <si>
+    <t>String.Empty</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +447,7 @@
     <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -472,6 +475,9 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D2">
         <v>12345678</v>
       </c>
@@ -483,7 +489,9 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -503,6 +511,12 @@
       </c>
       <c r="C4" t="s">
         <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">

--- a/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
+++ b/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>Key</t>
   </si>
@@ -56,6 +56,30 @@
   </si>
   <si>
     <t>String.Empty</t>
+  </si>
+  <si>
+    <t>LoginWithoutEmail</t>
+  </si>
+  <si>
+    <t>LoginWithoutPassword</t>
+  </si>
+  <si>
+    <t>admin@admin.com</t>
+  </si>
+  <si>
+    <t>LoginWithInvalidUser</t>
+  </si>
+  <si>
+    <t>somebody</t>
+  </si>
+  <si>
+    <t>LoginAsAdmin</t>
+  </si>
+  <si>
+    <t>somebody@abv.bg</t>
+  </si>
+  <si>
+    <t>LoginWithInvalidEmail</t>
   </si>
 </sst>
 </file>
@@ -100,9 +124,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -436,80 +465,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>12345678</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>12345678</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>12345678</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>12345678</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -520,37 +549,122 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1234567</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>12345</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>12345678</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>12345678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>123</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
+        <v>123</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>123</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -559,7 +673,11 @@
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B6" r:id="rId4" display="Ilian@mail.bg"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
+++ b/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="DataSet" sheetId="1" r:id="rId1"/>
+    <sheet name="UserDataSet" sheetId="1" r:id="rId1"/>
+    <sheet name="PostDataSet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>Key</t>
   </si>
@@ -80,6 +81,24 @@
   </si>
   <si>
     <t>LoginWithInvalidEmail</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>This is Content</t>
+  </si>
+  <si>
+    <t>CreatePostWithoutTitle</t>
+  </si>
+  <si>
+    <t>CreatePostWithoutContent</t>
+  </si>
+  <si>
+    <t>This is title</t>
   </si>
 </sst>
 </file>
@@ -467,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,4 +699,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
+++ b/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>Key</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>This is title</t>
+  </si>
+  <si>
+    <t>CreatePostSuccessfully</t>
+  </si>
+  <si>
+    <t>New Post</t>
   </si>
 </sst>
 </file>
@@ -703,10 +709,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,10 +739,10 @@
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -744,11 +750,22 @@
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
+++ b/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="UserDataSet" sheetId="1" r:id="rId1"/>
     <sheet name="PostDataSet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>Key</t>
   </si>
@@ -105,13 +105,22 @@
   </si>
   <si>
     <t>New Post</t>
+  </si>
+  <si>
+    <t>RegisterWithoutConfirmPassword</t>
+  </si>
+  <si>
+    <t>123@abv.bg</t>
+  </si>
+  <si>
+    <t>Cvety Getova</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,7 +287,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -313,7 +321,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -489,14 +496,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
@@ -505,7 +512,7 @@
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -539,7 +546,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -556,7 +563,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -573,7 +580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -590,7 +597,7 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -607,80 +614,80 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4321</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
         <v>123</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
         <v>12345</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1">
-        <v>123</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
@@ -689,6 +696,23 @@
         <v>123</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
+        <v>123</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -698,31 +722,32 @@
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B6" r:id="rId4" display="Ilian@mail.bg"/>
-    <hyperlink ref="B8" r:id="rId5"/>
-    <hyperlink ref="B10" r:id="rId6"/>
-    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B11" r:id="rId6"/>
+    <hyperlink ref="B10" r:id="rId7"/>
+    <hyperlink ref="B7" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,7 +760,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -746,7 +771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -757,7 +782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>28</v>
       </c>

--- a/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
+++ b/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UserDataSet" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>Key</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>Cvety Getova</t>
+  </si>
+  <si>
+    <t>EditNewPostTitle</t>
+  </si>
+  <si>
+    <t>EditNewPostContent</t>
+  </si>
+  <si>
+    <t>Edit</t>
   </si>
 </sst>
 </file>
@@ -499,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -734,10 +743,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -793,6 +802,24 @@
         <v>23</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
+++ b/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="UserDataSet" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>Key</t>
   </si>
@@ -123,13 +123,28 @@
   </si>
   <si>
     <t>Edit</t>
+  </si>
+  <si>
+    <t>RegisterWithFullNameWithNumbers</t>
+  </si>
+  <si>
+    <t>123a  433221</t>
+  </si>
+  <si>
+    <t>cvety@abv.bg</t>
+  </si>
+  <si>
+    <t>RegisterWithLongFullName</t>
+  </si>
+  <si>
+    <t>Adhjsfklsdfjdkjkldfjlkdsjg nshkajfsdkhgkjfgkjfdhgkjfdhg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +159,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -175,6 +196,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -506,17 +531,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
@@ -642,50 +667,50 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D8" s="1">
         <v>123</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1">
+        <v>123</v>
+      </c>
+      <c r="E9" s="1">
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="1">
-        <v>12345</v>
+        <v>123</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -693,7 +718,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>16</v>
@@ -701,8 +726,8 @@
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1">
-        <v>123</v>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -710,18 +735,52 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
+        <v>123</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
         <v>123</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -731,13 +790,15 @@
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B6" r:id="rId4" display="Ilian@mail.bg"/>
-    <hyperlink ref="B9" r:id="rId5"/>
-    <hyperlink ref="B11" r:id="rId6"/>
-    <hyperlink ref="B10" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId5"/>
+    <hyperlink ref="B13" r:id="rId6"/>
+    <hyperlink ref="B12" r:id="rId7"/>
     <hyperlink ref="B7" r:id="rId8"/>
+    <hyperlink ref="B8" r:id="rId9"/>
+    <hyperlink ref="B9" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -745,7 +806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
+++ b/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UserDataSet" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>Key</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Adhjsfklsdfjdkjkldfjlkdsjg nshkajfsdkhgkjfgkjfdhgkjfdhg</t>
+  </si>
+  <si>
+    <t>CreatePostWithLongTitle</t>
   </si>
 </sst>
 </file>
@@ -533,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -804,16 +807,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -865,19 +868,30 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
+++ b/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="UserDataSet" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>Key</t>
   </si>
@@ -128,9 +128,6 @@
     <t>RegisterWithFullNameWithNumbers</t>
   </si>
   <si>
-    <t>123a  433221</t>
-  </si>
-  <si>
     <t>cvety@abv.bg</t>
   </si>
   <si>
@@ -141,6 +138,15 @@
   </si>
   <si>
     <t>CreatePostWithLongTitle</t>
+  </si>
+  <si>
+    <t>RegisterSuccessfull</t>
+  </si>
+  <si>
+    <t>123  433221</t>
+  </si>
+  <si>
+    <t>LoginUserSuccessfull</t>
   </si>
 </sst>
 </file>
@@ -534,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -670,30 +676,30 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1234</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="1">
-        <v>123</v>
-      </c>
-      <c r="E8" s="1">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75">
-      <c r="A9" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>40</v>
+      <c r="C9" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D9" s="1">
         <v>123</v>
@@ -702,35 +708,35 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D10" s="1">
         <v>123</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
+      <c r="E10" s="1">
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
+      <c r="D11" s="1">
+        <v>123</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -738,16 +744,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="1">
-        <v>12345</v>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -755,16 +761,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1">
-        <v>123</v>
+        <v>12345</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -772,10 +778,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -784,6 +790,40 @@
         <v>123</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1">
+        <v>123</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1234</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -793,15 +833,17 @@
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B6" r:id="rId4" display="Ilian@mail.bg"/>
-    <hyperlink ref="B11" r:id="rId5"/>
-    <hyperlink ref="B13" r:id="rId6"/>
-    <hyperlink ref="B12" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId5"/>
+    <hyperlink ref="B14" r:id="rId6"/>
+    <hyperlink ref="B13" r:id="rId7"/>
     <hyperlink ref="B7" r:id="rId8"/>
-    <hyperlink ref="B8" r:id="rId9"/>
-    <hyperlink ref="B9" r:id="rId10"/>
+    <hyperlink ref="B9" r:id="rId9"/>
+    <hyperlink ref="B10" r:id="rId10"/>
+    <hyperlink ref="B8" r:id="rId11"/>
+    <hyperlink ref="B16" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -809,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -868,10 +910,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>23</v>

--- a/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
+++ b/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="UserDataSet" sheetId="1" r:id="rId1"/>
@@ -152,8 +152,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,7 +298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,9 +330,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,6 +382,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -539,14 +575,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
@@ -555,7 +591,7 @@
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -589,7 +625,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -606,7 +642,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -623,7 +659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -640,7 +676,7 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -657,7 +693,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -674,7 +710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -691,7 +727,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -708,7 +744,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -725,7 +761,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -742,7 +778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -759,7 +795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -776,7 +812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -793,7 +829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -810,7 +846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -848,21 +884,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,7 +911,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -886,7 +922,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -897,7 +933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -908,7 +944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -919,7 +955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -928,7 +964,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>

--- a/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
+++ b/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>Key</t>
   </si>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,9 +615,7 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="1">
         <v>12345678</v>
       </c>
@@ -629,9 +627,7 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -652,12 +648,8 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -706,9 +698,7 @@
       <c r="D7" s="1">
         <v>4321</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -765,18 +755,12 @@
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="1">
         <v>123</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -785,15 +769,9 @@
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -802,15 +780,11 @@
       <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="1">
         <v>12345</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -819,15 +793,11 @@
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="1">
         <v>123</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -836,15 +806,11 @@
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="1">
         <v>123</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -853,15 +819,11 @@
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="1">
         <v>1234</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="E16" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
+++ b/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Key</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>LoginUserSuccessfull</t>
+  </si>
+  <si>
+    <t>cvety3@abv.bg</t>
+  </si>
+  <si>
+    <t>1234@abv.bg</t>
   </si>
 </sst>
 </file>
@@ -579,7 +585,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +711,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -722,7 +728,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>42</v>
@@ -739,7 +745,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>39</v>

--- a/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
+++ b/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>Key</t>
   </si>
@@ -147,13 +147,19 @@
   </si>
   <si>
     <t>LoginUserSuccessfull</t>
+  </si>
+  <si>
+    <t>IsAdmin</t>
+  </si>
+  <si>
+    <t>IsUser</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,7 +304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,9 +336,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,6 +371,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -539,14 +547,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
@@ -555,7 +563,7 @@
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,8 +579,14 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -588,8 +602,14 @@
       <c r="E2" s="1">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -605,8 +625,14 @@
       <c r="E3" s="1">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -622,8 +648,14 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -639,8 +671,14 @@
       <c r="E5" s="1">
         <v>12345</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -656,8 +694,14 @@
       <c r="E6" s="1">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -673,8 +717,14 @@
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -690,8 +740,14 @@
       <c r="E8" s="1">
         <v>1234</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -707,8 +763,14 @@
       <c r="E9" s="1">
         <v>123</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75">
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -724,8 +786,14 @@
       <c r="E10" s="1">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -741,8 +809,14 @@
       <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -758,8 +832,14 @@
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -775,8 +855,14 @@
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -792,8 +878,14 @@
       <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -809,8 +901,14 @@
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -825,6 +923,12 @@
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -848,21 +952,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,7 +979,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -886,7 +990,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -897,7 +1001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -908,7 +1012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -919,7 +1023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -928,7 +1032,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>

--- a/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
+++ b/Blog-Skeleton/Blog.UI.Tests/DataDrivenTests/UserData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>Key</t>
   </si>
@@ -149,17 +149,29 @@
     <t>LoginUserSuccessfull</t>
   </si>
   <si>
-    <t>IsAdmin</t>
-  </si>
-  <si>
-    <t>IsUser</t>
+    <t>CreateUserPostWithoutTitle</t>
+  </si>
+  <si>
+    <t>CreateUserPostWithoutContent</t>
+  </si>
+  <si>
+    <t>CreateUserPostWithLongTitle</t>
+  </si>
+  <si>
+    <t>CreateUserPostSuccessfully</t>
+  </si>
+  <si>
+    <t>User New Post</t>
+  </si>
+  <si>
+    <t>User New Content</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,7 +316,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,10 +348,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,7 +382,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -547,14 +557,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
@@ -563,7 +573,7 @@
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,14 +589,8 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -602,14 +606,8 @@
       <c r="E2" s="1">
         <v>12345678</v>
       </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -625,14 +623,8 @@
       <c r="E3" s="1">
         <v>12345678</v>
       </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -648,14 +640,8 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -671,14 +657,8 @@
       <c r="E5" s="1">
         <v>12345</v>
       </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -694,14 +674,8 @@
       <c r="E6" s="1">
         <v>12345678</v>
       </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -717,14 +691,8 @@
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -740,14 +708,8 @@
       <c r="E8" s="1">
         <v>1234</v>
       </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -763,14 +725,8 @@
       <c r="E9" s="1">
         <v>123</v>
       </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -786,14 +742,8 @@
       <c r="E10" s="1">
         <v>123</v>
       </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -809,14 +759,8 @@
       <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -832,14 +776,8 @@
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -855,14 +793,8 @@
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -878,14 +810,8 @@
       <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -901,14 +827,8 @@
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -923,12 +843,6 @@
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -952,21 +866,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -979,7 +893,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -990,7 +904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1001,7 +915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1012,7 +926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1023,7 +937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1032,13 +946,57 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
